--- a/notes/git.recall.xlsx
+++ b/notes/git.recall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akintunde.adegbayo\Documents\git.projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akintunde.adegbayo\Documents\git.projects\flo.fin\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93D812C-269B-4A5E-B1FD-99607AF65A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45844118-697A-479D-A858-793FA52B4C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{31B5491E-1CB5-4C56-B90F-52AC55B8AEA4}"/>
+    <workbookView xWindow="3975" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{31B5491E-1CB5-4C56-B90F-52AC55B8AEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Git Commands" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0DCEF-8B61-4E27-9EF1-5878AEF758CD}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +594,7 @@
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
     <mergeCell ref="A45:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
